--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L7-介接外部系統/FinHoldRel.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L7-介接外部系統/FinHoldRel.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showObjects="none" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v06v2\Desktop\in\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\SKL\DB\GenTables\L7-介接外部系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7580"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="0" yWindow="0" windowWidth="19170" windowHeight="5280" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
   <si>
     <t>備註說明</t>
   </si>
@@ -42,11 +42,11 @@
   </si>
   <si>
     <t>SEQ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>讀取Key條件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>其他ORDER條件</t>
@@ -68,96 +68,96 @@
   </si>
   <si>
     <t>Table</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>UNI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>FunNm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
   </si>
   <si>
     <t>CreateDate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>建檔日期時間</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DATE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CreateEmpNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>建檔人員</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>LastUpdate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>最後更新日期時間</t>
   </si>
   <si>
     <t>LastUpdateEmpNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>最後更新人員</t>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Comment</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Parameter</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Stored Procedure Name</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>ˇ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>BusTitle</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>核貸金額</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>放款金額</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>LoanBalance</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>LineAmt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>暫不以代號列入：
@@ -171,59 +171,75 @@
 H：經理
 I：副理
 J：其他</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Key Id</t>
   </si>
   <si>
     <t>FinHoldRel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>金控利關人名單檔 T044
 (使用報表：LM049、LQ005)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>所在公司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CompanyName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>身分證/統一編號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>姓名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>職務</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Usp_L7_FinHoldRel_Upd</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>String empNo</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -421,133 +437,140 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -851,7 +874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -867,10 +890,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="34" x14ac:dyDescent="0.4">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="33"/>
       <c r="C1" s="4" t="s">
         <v>40</v>
       </c>
@@ -882,8 +905,8 @@
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="22" t="s">
         <v>39</v>
       </c>
@@ -895,10 +918,10 @@
       <c r="G2" s="25"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="36"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="3" t="s">
         <v>44</v>
       </c>
@@ -906,14 +929,14 @@
         <v>32</v>
       </c>
       <c r="E3" s="9"/>
-      <c r="F3" s="37"/>
+      <c r="F3" s="31"/>
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="11"/>
       <c r="D4" s="5"/>
       <c r="E4" s="9"/>
@@ -921,10 +944,10 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="11"/>
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
@@ -932,10 +955,10 @@
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="34"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="3"/>
       <c r="D6" s="5"/>
       <c r="E6" s="9"/>
@@ -943,10 +966,10 @@
       <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="35"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="3"/>
       <c r="D7" s="5"/>
       <c r="E7" s="12"/>
@@ -1226,7 +1249,7 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1264,7 +1287,7 @@
       <c r="B6" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -1272,10 +1295,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -1296,8 +1319,16 @@
         <v>29</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L7-介接外部系統/FinHoldRel.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L7-介接外部系統/FinHoldRel.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr showObjects="none" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\SKL\DB\GenTables\L7-介接外部系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E962171B-D0CA-4FCC-B2BB-FE46DF5D2CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="0" yWindow="0" windowWidth="19170" windowHeight="5280" activeTab="2"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="380" yWindow="380" windowWidth="18150" windowHeight="8460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
   <si>
     <t>備註說明</t>
   </si>
@@ -221,11 +222,30 @@
     <t>String empNo</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>AcDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>會計日期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DecimalD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findAcDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AcDate = </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -448,7 +468,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -467,32 +487,26 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -521,10 +535,10 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -562,15 +576,12 @@
     </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -661,6 +672,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -696,6 +724,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -871,33 +916,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.1796875" style="15" customWidth="1"/>
-    <col min="3" max="3" width="24.1796875" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.81640625" style="17" customWidth="1"/>
-    <col min="5" max="6" width="6.1796875" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.453125" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.1796875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="24.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.81640625" style="15" customWidth="1"/>
+    <col min="5" max="6" width="6.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.453125" style="13" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="21.453125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="34" x14ac:dyDescent="0.4">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="31"/>
       <c r="C1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="28" t="s">
         <v>41</v>
       </c>
       <c r="E1" s="6"/>
@@ -905,23 +950,23 @@
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="22" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="37"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="3" t="s">
         <v>44</v>
       </c>
@@ -929,315 +974,333 @@
         <v>32</v>
       </c>
       <c r="E3" s="9"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="10"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="11"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="5"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="11"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="10"/>
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="35"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="3"/>
       <c r="D6" s="5"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="36"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="3"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="22" t="s">
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="24" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="15">
+      <c r="A9" s="13">
         <v>1</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="13">
+        <v>8</v>
+      </c>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="13">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C10" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E10" s="13">
         <v>100</v>
       </c>
-      <c r="G9" s="19"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="15">
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="13">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="13">
+        <v>10</v>
+      </c>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="13">
+        <v>4</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="13">
+        <v>100</v>
+      </c>
+      <c r="G12" s="18"/>
+    </row>
+    <row r="13" spans="1:7" ht="187" x14ac:dyDescent="0.4">
+      <c r="A13" s="13">
+        <v>5</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="13">
+        <v>100</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="13">
+        <v>6</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="13">
+        <v>16</v>
+      </c>
+      <c r="F14" s="13">
         <v>2</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="15" t="s">
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="13">
+        <v>7</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="13">
+        <v>16</v>
+      </c>
+      <c r="F15" s="13">
+        <v>2</v>
+      </c>
+      <c r="G15" s="18"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="13">
+        <v>8</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" s="13">
+        <v>9</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E17" s="13">
+        <v>6</v>
+      </c>
+      <c r="G17" s="19"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" s="13">
         <v>10</v>
       </c>
-      <c r="G10" s="19"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="15">
-        <v>3</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="15">
-        <v>100</v>
-      </c>
-      <c r="G11" s="20"/>
-    </row>
-    <row r="12" spans="1:7" ht="187" x14ac:dyDescent="0.4">
-      <c r="A12" s="15">
-        <v>4</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="15">
-        <v>100</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="15">
-        <v>5</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="15">
-        <v>16</v>
-      </c>
-      <c r="F13" s="15">
-        <v>2</v>
-      </c>
-      <c r="G13" s="19"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="15">
+      <c r="B18" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="25"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" s="13">
+        <v>11</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="13">
         <v>6</v>
       </c>
-      <c r="B14" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="15">
-        <v>16</v>
-      </c>
-      <c r="F14" s="15">
-        <v>2</v>
-      </c>
-      <c r="G14" s="20"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="15">
-        <v>7</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="15">
-        <v>8</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="15">
-        <v>6</v>
-      </c>
-      <c r="G16" s="21"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="15">
-        <v>9</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="27"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="15">
-        <v>10</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B19" s="3"/>
-      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B20" s="3"/>
-      <c r="D20" s="15"/>
-      <c r="G20" s="11"/>
+      <c r="D20" s="19"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B21" s="3"/>
-      <c r="D21" s="21"/>
+      <c r="D21" s="13"/>
+      <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B22" s="29"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="21"/>
+      <c r="B22" s="3"/>
+      <c r="D22" s="19"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B23" s="29"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="15"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="19"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B24" s="29"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="15"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="13"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B25" s="29"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="15"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="13"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="15"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="15"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="13"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="13"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="15"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="13"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="15"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="13"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="15"/>
-      <c r="F44" s="27"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="13"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="13"/>
+      <c r="F45" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1256,12 +1319,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B3"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -1283,8 +1346,16 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B6" s="11"/>
+      <c r="B6" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1294,10 +1365,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1308,22 +1379,22 @@
     <col min="3" max="3" width="60.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="26" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="38" t="s">
+      <c r="A2" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" t="s">
         <v>50</v>
       </c>
     </row>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L7-介接外部系統/FinHoldRel.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L7-介接外部系統/FinHoldRel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\SKL\DB\GenTables\L7-介接外部系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E962171B-D0CA-4FCC-B2BB-FE46DF5D2CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B74B4B5-15AE-403F-AEC7-1DB18F136969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="380" yWindow="380" windowWidth="18150" windowHeight="8460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="760" yWindow="760" windowWidth="18150" windowHeight="10000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
   <si>
     <t>備註說明</t>
   </si>
@@ -240,6 +240,10 @@
   </si>
   <si>
     <t xml:space="preserve">AcDate = </t>
+  </si>
+  <si>
+    <t>Id,AcDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -920,7 +924,7 @@
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -968,7 +972,7 @@
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>32</v>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L7-介接外部系統/FinHoldRel.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L7-介接外部系統/FinHoldRel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\SKL\DB\GenTables\L7-介接外部系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B74B4B5-15AE-403F-AEC7-1DB18F136969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89D2D32-36F5-426B-886F-0BC021233457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="760" yWindow="760" windowWidth="18150" windowHeight="10000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -242,7 +242,7 @@
     <t xml:space="preserve">AcDate = </t>
   </si>
   <si>
-    <t>Id,AcDate</t>
+    <t>Id,AcDate,CompanyName</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -924,7 +924,7 @@
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="17" x14ac:dyDescent="0.4"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L7-介接外部系統/FinHoldRel.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L7-介接外部系統/FinHoldRel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr showObjects="none" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\SKL\DB\GenTables\L7-介接外部系統\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L7-介接外部系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89D2D32-36F5-426B-886F-0BC021233457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBFBEEA-2A3C-4EE7-8B4F-34070B4CA8CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -91,10 +91,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>CreateEmpNo</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -244,6 +240,9 @@
   <si>
     <t>Id,AcDate,CompanyName</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -601,9 +600,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -641,9 +640,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -676,26 +675,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -728,26 +710,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -924,40 +889,40 @@
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.1796875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="24.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.81640625" style="15" customWidth="1"/>
-    <col min="5" max="6" width="6.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.453125" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="21.453125" style="8"/>
+    <col min="1" max="1" width="5.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.21875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="24.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.77734375" style="15" customWidth="1"/>
+    <col min="5" max="6" width="6.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="21.44140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="34" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="28" t="s">
         <v>40</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>41</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="30"/>
       <c r="B2" s="31"/>
       <c r="C2" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>15</v>
@@ -966,22 +931,22 @@
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="29"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
         <v>10</v>
       </c>
@@ -992,7 +957,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="35" t="s">
         <v>11</v>
       </c>
@@ -1003,7 +968,7 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
         <v>12</v>
       </c>
@@ -1014,7 +979,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="s">
         <v>13</v>
       </c>
@@ -1025,7 +990,7 @@
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>6</v>
       </c>
@@ -1048,33 +1013,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>1</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="13" t="s">
         <v>52</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>53</v>
       </c>
       <c r="E9" s="13">
         <v>8</v>
       </c>
       <c r="G9" s="17"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>17</v>
@@ -1084,15 +1049,15 @@
       </c>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>44</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>45</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>17</v>
@@ -1102,15 +1067,15 @@
       </c>
       <c r="G11" s="17"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>4</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>46</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>47</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>17</v>
@@ -1120,15 +1085,15 @@
       </c>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="1:7" ht="187" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" ht="178.2" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>5</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>17</v>
@@ -1137,21 +1102,21 @@
         <v>100</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <v>6</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14" s="13">
         <v>16</v>
@@ -1161,18 +1126,18 @@
       </c>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
         <v>7</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E15" s="13">
         <v>16</v>
@@ -1182,7 +1147,7 @@
       </c>
       <c r="G15" s="18"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <v>8</v>
       </c>
@@ -1193,19 +1158,19 @@
         <v>19</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="13">
         <v>9</v>
       </c>
       <c r="B17" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>21</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>22</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>17</v>
@@ -1215,92 +1180,92 @@
       </c>
       <c r="G17" s="19"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <v>10</v>
       </c>
       <c r="B18" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>24</v>
-      </c>
       <c r="D18" s="13" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="G18" s="25"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="13">
         <v>11</v>
       </c>
       <c r="B19" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="D19" s="13" t="s">
         <v>26</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>27</v>
       </c>
       <c r="E19" s="13">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
       <c r="D20" s="19"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
       <c r="D21" s="13"/>
       <c r="G21" s="10"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
       <c r="D22" s="19"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B23" s="27"/>
       <c r="C23" s="16"/>
       <c r="D23" s="19"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B24" s="27"/>
       <c r="C24" s="16"/>
       <c r="D24" s="13"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B25" s="27"/>
       <c r="C25" s="16"/>
       <c r="D25" s="13"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B26" s="27"/>
       <c r="C26" s="16"/>
       <c r="D26" s="13"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
       <c r="D27" s="13"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
       <c r="D42" s="13"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
       <c r="D43" s="13"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
       <c r="D44" s="13"/>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
       <c r="D45" s="13"/>
@@ -1331,15 +1296,15 @@
       <selection pane="bottomLeft" activeCell="B11" sqref="B11:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.36328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="87.08984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="55.90625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="87.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="55.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -1350,15 +1315,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" s="10"/>
     </row>
   </sheetData>
@@ -1376,30 +1341,30 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.90625" customWidth="1"/>
+    <col min="1" max="1" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
         <v>49</v>
-      </c>
-      <c r="B2" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
